--- a/content/drafts/entitats/Codis_Territori_Ajuntaments.xlsx
+++ b/content/drafts/entitats/Codis_Territori_Ajuntaments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\03.Canigo\Versio_20191014\03.Draft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\01.Cataleg_inicial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9F6B61-5FFC-4606-86EF-80E8CD2BE49E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7976235-CB88-4D2F-91AD-27D143C0A3C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15576" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ajuntaments" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3794" uniqueCount="2889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3800" uniqueCount="2895">
   <si>
     <t>Codi</t>
   </si>
@@ -8698,6 +8698,24 @@
   </si>
   <si>
     <t>Codis_Territori_Ajuntaments</t>
+  </si>
+  <si>
+    <t>No consta</t>
+  </si>
+  <si>
+    <t>Altres/Diversos</t>
+  </si>
+  <si>
+    <t>9999999998</t>
+  </si>
+  <si>
+    <t>9999999999</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
   </si>
 </sst>
 </file>
@@ -8747,7 +8765,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -8770,17 +8788,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8923,7 +8958,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:D950" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:D952" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="2" dataCellStyle="Normal_Hoja2"/>
@@ -9197,19 +9232,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E950"/>
+  <dimension ref="A1:E952"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -9217,7 +9252,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -9232,7 +9267,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>952</v>
       </c>
@@ -9247,7 +9282,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>955</v>
       </c>
@@ -9262,7 +9297,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>958</v>
       </c>
@@ -9277,7 +9312,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>961</v>
       </c>
@@ -9292,7 +9327,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>996</v>
       </c>
@@ -9306,7 +9341,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>999</v>
       </c>
@@ -9320,7 +9355,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>1001</v>
       </c>
@@ -9334,7 +9369,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>1004</v>
       </c>
@@ -9348,7 +9383,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>1006</v>
       </c>
@@ -9362,7 +9397,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>1008</v>
       </c>
@@ -9376,7 +9411,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>1010</v>
       </c>
@@ -9390,7 +9425,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>1012</v>
       </c>
@@ -9404,7 +9439,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>1014</v>
       </c>
@@ -9418,7 +9453,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>1016</v>
       </c>
@@ -9432,7 +9467,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>1018</v>
       </c>
@@ -9446,7 +9481,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>1020</v>
       </c>
@@ -9460,7 +9495,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>1022</v>
       </c>
@@ -9474,7 +9509,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>1024</v>
       </c>
@@ -9488,7 +9523,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>1026</v>
       </c>
@@ -9502,7 +9537,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>1028</v>
       </c>
@@ -9516,7 +9551,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>1030</v>
       </c>
@@ -9530,7 +9565,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>1032</v>
       </c>
@@ -9544,7 +9579,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>1034</v>
       </c>
@@ -9558,7 +9593,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>1036</v>
       </c>
@@ -9572,7 +9607,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>1038</v>
       </c>
@@ -9586,7 +9621,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>1040</v>
       </c>
@@ -9600,7 +9635,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>1042</v>
       </c>
@@ -9614,7 +9649,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>1044</v>
       </c>
@@ -9628,7 +9663,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>1046</v>
       </c>
@@ -9642,7 +9677,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>1048</v>
       </c>
@@ -9656,7 +9691,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>1050</v>
       </c>
@@ -9670,7 +9705,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>1052</v>
       </c>
@@ -9684,7 +9719,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>1054</v>
       </c>
@@ -9698,7 +9733,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>1056</v>
       </c>
@@ -9712,7 +9747,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>1058</v>
       </c>
@@ -9726,7 +9761,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>1060</v>
       </c>
@@ -9740,7 +9775,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>1062</v>
       </c>
@@ -9754,7 +9789,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>1064</v>
       </c>
@@ -9768,7 +9803,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>1066</v>
       </c>
@@ -9782,7 +9817,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>1068</v>
       </c>
@@ -9796,7 +9831,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>1070</v>
       </c>
@@ -9810,7 +9845,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>1072</v>
       </c>
@@ -9824,7 +9859,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>1074</v>
       </c>
@@ -9838,7 +9873,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>1076</v>
       </c>
@@ -9852,7 +9887,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>1078</v>
       </c>
@@ -9866,7 +9901,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>1081</v>
       </c>
@@ -9880,7 +9915,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>1083</v>
       </c>
@@ -9894,7 +9929,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>1085</v>
       </c>
@@ -9908,7 +9943,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>1087</v>
       </c>
@@ -9922,7 +9957,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>1089</v>
       </c>
@@ -9936,7 +9971,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>1091</v>
       </c>
@@ -9950,7 +9985,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>1093</v>
       </c>
@@ -9964,7 +9999,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>1095</v>
       </c>
@@ -9978,7 +10013,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>1097</v>
       </c>
@@ -9992,7 +10027,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>1099</v>
       </c>
@@ -10006,7 +10041,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>1101</v>
       </c>
@@ -10020,7 +10055,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>1103</v>
       </c>
@@ -10034,7 +10069,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>1105</v>
       </c>
@@ -10048,7 +10083,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>1107</v>
       </c>
@@ -10062,7 +10097,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>1109</v>
       </c>
@@ -10076,7 +10111,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>1111</v>
       </c>
@@ -10090,7 +10125,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>1113</v>
       </c>
@@ -10104,7 +10139,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>1115</v>
       </c>
@@ -10118,7 +10153,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>1118</v>
       </c>
@@ -10132,7 +10167,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>1120</v>
       </c>
@@ -10146,7 +10181,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>1122</v>
       </c>
@@ -10160,7 +10195,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>1124</v>
       </c>
@@ -10174,7 +10209,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>1126</v>
       </c>
@@ -10188,7 +10223,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>1128</v>
       </c>
@@ -10202,7 +10237,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>1130</v>
       </c>
@@ -10216,7 +10251,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>1132</v>
       </c>
@@ -10230,7 +10265,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>1134</v>
       </c>
@@ -10244,7 +10279,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>1136</v>
       </c>
@@ -10258,7 +10293,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>1138</v>
       </c>
@@ -10272,7 +10307,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>1140</v>
       </c>
@@ -10286,7 +10321,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>1143</v>
       </c>
@@ -10300,7 +10335,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>1145</v>
       </c>
@@ -10314,7 +10349,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>1147</v>
       </c>
@@ -10328,7 +10363,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>1149</v>
       </c>
@@ -10342,7 +10377,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>1151</v>
       </c>
@@ -10356,7 +10391,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>1153</v>
       </c>
@@ -10370,7 +10405,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>1155</v>
       </c>
@@ -10384,7 +10419,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>1157</v>
       </c>
@@ -10398,7 +10433,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>1159</v>
       </c>
@@ -10412,7 +10447,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>1161</v>
       </c>
@@ -10426,7 +10461,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>1163</v>
       </c>
@@ -10440,7 +10475,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>1165</v>
       </c>
@@ -10454,7 +10489,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>1167</v>
       </c>
@@ -10468,7 +10503,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>1169</v>
       </c>
@@ -10482,7 +10517,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>1171</v>
       </c>
@@ -10496,7 +10531,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>1173</v>
       </c>
@@ -10510,7 +10545,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>1175</v>
       </c>
@@ -10524,7 +10559,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>1177</v>
       </c>
@@ -10538,7 +10573,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>1179</v>
       </c>
@@ -10552,7 +10587,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>1181</v>
       </c>
@@ -10566,7 +10601,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>1183</v>
       </c>
@@ -10580,7 +10615,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>1185</v>
       </c>
@@ -10594,7 +10629,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>1187</v>
       </c>
@@ -10608,7 +10643,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>1189</v>
       </c>
@@ -10622,7 +10657,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>1191</v>
       </c>
@@ -10636,7 +10671,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>1193</v>
       </c>
@@ -10650,7 +10685,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>1195</v>
       </c>
@@ -10664,7 +10699,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>1197</v>
       </c>
@@ -10678,7 +10713,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>1199</v>
       </c>
@@ -10692,7 +10727,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>1201</v>
       </c>
@@ -10706,7 +10741,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>1203</v>
       </c>
@@ -10720,7 +10755,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>1205</v>
       </c>
@@ -10734,7 +10769,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>1207</v>
       </c>
@@ -10748,7 +10783,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>1209</v>
       </c>
@@ -10762,7 +10797,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>1211</v>
       </c>
@@ -10776,7 +10811,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>1213</v>
       </c>
@@ -10790,7 +10825,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>1215</v>
       </c>
@@ -10804,7 +10839,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>1217</v>
       </c>
@@ -10818,7 +10853,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>1219</v>
       </c>
@@ -10832,7 +10867,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>1221</v>
       </c>
@@ -10846,7 +10881,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>1223</v>
       </c>
@@ -10860,7 +10895,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>1225</v>
       </c>
@@ -10874,7 +10909,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>1227</v>
       </c>
@@ -10888,7 +10923,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>1229</v>
       </c>
@@ -10902,7 +10937,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>1231</v>
       </c>
@@ -10916,7 +10951,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>1233</v>
       </c>
@@ -10930,7 +10965,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>1235</v>
       </c>
@@ -10944,7 +10979,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>1237</v>
       </c>
@@ -10958,7 +10993,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>1239</v>
       </c>
@@ -10972,7 +11007,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>1241</v>
       </c>
@@ -10986,7 +11021,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>1243</v>
       </c>
@@ -11000,7 +11035,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>1245</v>
       </c>
@@ -11014,7 +11049,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>1247</v>
       </c>
@@ -11028,7 +11063,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>1249</v>
       </c>
@@ -11042,7 +11077,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>1251</v>
       </c>
@@ -11056,7 +11091,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>1253</v>
       </c>
@@ -11070,7 +11105,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>1255</v>
       </c>
@@ -11084,7 +11119,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>1257</v>
       </c>
@@ -11098,7 +11133,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>1259</v>
       </c>
@@ -11112,7 +11147,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>1261</v>
       </c>
@@ -11126,7 +11161,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>1263</v>
       </c>
@@ -11140,7 +11175,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>1265</v>
       </c>
@@ -11154,7 +11189,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>1267</v>
       </c>
@@ -11168,7 +11203,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>1269</v>
       </c>
@@ -11182,7 +11217,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>1271</v>
       </c>
@@ -11196,7 +11231,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>1273</v>
       </c>
@@ -11210,7 +11245,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>1275</v>
       </c>
@@ -11224,7 +11259,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>1277</v>
       </c>
@@ -11238,7 +11273,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>1279</v>
       </c>
@@ -11252,7 +11287,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>1281</v>
       </c>
@@ -11266,7 +11301,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>1283</v>
       </c>
@@ -11280,7 +11315,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>1285</v>
       </c>
@@ -11294,7 +11329,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>1287</v>
       </c>
@@ -11308,7 +11343,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>1289</v>
       </c>
@@ -11322,7 +11357,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>1291</v>
       </c>
@@ -11336,7 +11371,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>1293</v>
       </c>
@@ -11350,7 +11385,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>1295</v>
       </c>
@@ -11364,7 +11399,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>1297</v>
       </c>
@@ -11378,7 +11413,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>1299</v>
       </c>
@@ -11392,7 +11427,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>1301</v>
       </c>
@@ -11406,7 +11441,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>1303</v>
       </c>
@@ -11420,7 +11455,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>1305</v>
       </c>
@@ -11434,7 +11469,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>1307</v>
       </c>
@@ -11448,7 +11483,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>1309</v>
       </c>
@@ -11462,7 +11497,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>1311</v>
       </c>
@@ -11476,7 +11511,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>1313</v>
       </c>
@@ -11490,7 +11525,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>1315</v>
       </c>
@@ -11504,7 +11539,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>1317</v>
       </c>
@@ -11518,7 +11553,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>1319</v>
       </c>
@@ -11532,7 +11567,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>1321</v>
       </c>
@@ -11546,7 +11581,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>1323</v>
       </c>
@@ -11560,7 +11595,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>1325</v>
       </c>
@@ -11574,7 +11609,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>1327</v>
       </c>
@@ -11588,7 +11623,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>1329</v>
       </c>
@@ -11602,7 +11637,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>1331</v>
       </c>
@@ -11616,7 +11651,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>1333</v>
       </c>
@@ -11630,7 +11665,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>1335</v>
       </c>
@@ -11644,7 +11679,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>1337</v>
       </c>
@@ -11658,7 +11693,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>1339</v>
       </c>
@@ -11672,7 +11707,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>1341</v>
       </c>
@@ -11686,7 +11721,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>1343</v>
       </c>
@@ -11700,7 +11735,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>1345</v>
       </c>
@@ -11714,7 +11749,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>1347</v>
       </c>
@@ -11728,7 +11763,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>1349</v>
       </c>
@@ -11742,7 +11777,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>1351</v>
       </c>
@@ -11756,7 +11791,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>1353</v>
       </c>
@@ -11770,7 +11805,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>1355</v>
       </c>
@@ -11784,7 +11819,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>1357</v>
       </c>
@@ -11798,7 +11833,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>1359</v>
       </c>
@@ -11812,7 +11847,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>1361</v>
       </c>
@@ -11826,7 +11861,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>1363</v>
       </c>
@@ -11840,7 +11875,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>1365</v>
       </c>
@@ -11854,7 +11889,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>1367</v>
       </c>
@@ -11868,7 +11903,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>1369</v>
       </c>
@@ -11882,7 +11917,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>1371</v>
       </c>
@@ -11896,7 +11931,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>1373</v>
       </c>
@@ -11910,7 +11945,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>1375</v>
       </c>
@@ -11924,7 +11959,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>1377</v>
       </c>
@@ -11938,7 +11973,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>1379</v>
       </c>
@@ -11952,7 +11987,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>1381</v>
       </c>
@@ -11966,7 +12001,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>1383</v>
       </c>
@@ -11980,7 +12015,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>1385</v>
       </c>
@@ -11994,7 +12029,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>1387</v>
       </c>
@@ -12008,7 +12043,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
         <v>1389</v>
       </c>
@@ -12022,7 +12057,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>1391</v>
       </c>
@@ -12036,7 +12071,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>1393</v>
       </c>
@@ -12050,7 +12085,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>1395</v>
       </c>
@@ -12064,7 +12099,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
         <v>1397</v>
       </c>
@@ -12078,7 +12113,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
         <v>1399</v>
       </c>
@@ -12092,7 +12127,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>1401</v>
       </c>
@@ -12106,7 +12141,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>1403</v>
       </c>
@@ -12120,7 +12155,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
         <v>1405</v>
       </c>
@@ -12134,7 +12169,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>1407</v>
       </c>
@@ -12148,7 +12183,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
         <v>1409</v>
       </c>
@@ -12162,7 +12197,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
         <v>1411</v>
       </c>
@@ -12176,7 +12211,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
         <v>1413</v>
       </c>
@@ -12190,7 +12225,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
         <v>1415</v>
       </c>
@@ -12204,7 +12239,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
         <v>1417</v>
       </c>
@@ -12218,7 +12253,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>1419</v>
       </c>
@@ -12232,7 +12267,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
         <v>1421</v>
       </c>
@@ -12246,7 +12281,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
         <v>1423</v>
       </c>
@@ -12260,7 +12295,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
         <v>1425</v>
       </c>
@@ -12274,7 +12309,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
         <v>1427</v>
       </c>
@@ -12288,7 +12323,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
         <v>1429</v>
       </c>
@@ -12302,7 +12337,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
         <v>1431</v>
       </c>
@@ -12316,7 +12351,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
         <v>1433</v>
       </c>
@@ -12330,7 +12365,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
         <v>1435</v>
       </c>
@@ -12344,7 +12379,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
         <v>1437</v>
       </c>
@@ -12358,7 +12393,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
         <v>1439</v>
       </c>
@@ -12372,7 +12407,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
         <v>1441</v>
       </c>
@@ -12386,7 +12421,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
         <v>1443</v>
       </c>
@@ -12400,7 +12435,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
         <v>1445</v>
       </c>
@@ -12414,7 +12449,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
         <v>1447</v>
       </c>
@@ -12428,7 +12463,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
         <v>1449</v>
       </c>
@@ -12442,7 +12477,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
         <v>1451</v>
       </c>
@@ -12456,7 +12491,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
         <v>1453</v>
       </c>
@@ -12470,7 +12505,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
         <v>1455</v>
       </c>
@@ -12484,7 +12519,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
         <v>1457</v>
       </c>
@@ -12498,7 +12533,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
         <v>1459</v>
       </c>
@@ -12512,7 +12547,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
         <v>1461</v>
       </c>
@@ -12526,7 +12561,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
         <v>1463</v>
       </c>
@@ -12540,7 +12575,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
         <v>1465</v>
       </c>
@@ -12554,7 +12589,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
         <v>1467</v>
       </c>
@@ -12568,7 +12603,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
         <v>1469</v>
       </c>
@@ -12582,7 +12617,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
         <v>1471</v>
       </c>
@@ -12596,7 +12631,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
         <v>1473</v>
       </c>
@@ -12610,7 +12645,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
         <v>1475</v>
       </c>
@@ -12624,7 +12659,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="s">
         <v>1477</v>
       </c>
@@ -12638,7 +12673,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
         <v>1479</v>
       </c>
@@ -12652,7 +12687,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
         <v>1481</v>
       </c>
@@ -12666,7 +12701,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
         <v>1483</v>
       </c>
@@ -12680,7 +12715,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
         <v>1485</v>
       </c>
@@ -12694,7 +12729,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
         <v>1487</v>
       </c>
@@ -12708,7 +12743,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">
         <v>1489</v>
       </c>
@@ -12722,7 +12757,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
         <v>1491</v>
       </c>
@@ -12736,7 +12771,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="s">
         <v>1493</v>
       </c>
@@ -12750,7 +12785,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
         <v>1495</v>
       </c>
@@ -12764,7 +12799,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
         <v>1497</v>
       </c>
@@ -12778,7 +12813,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
         <v>1499</v>
       </c>
@@ -12792,7 +12827,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
         <v>1501</v>
       </c>
@@ -12806,7 +12841,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
         <v>1503</v>
       </c>
@@ -12820,7 +12855,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="3" t="s">
         <v>1505</v>
       </c>
@@ -12834,7 +12869,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
         <v>1507</v>
       </c>
@@ -12848,7 +12883,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="3" t="s">
         <v>1509</v>
       </c>
@@ -12862,7 +12897,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
         <v>1511</v>
       </c>
@@ -12876,7 +12911,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
         <v>1513</v>
       </c>
@@ -12890,7 +12925,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" s="3" t="s">
         <v>1515</v>
       </c>
@@ -12904,7 +12939,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
         <v>1517</v>
       </c>
@@ -12918,7 +12953,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
         <v>1519</v>
       </c>
@@ -12932,7 +12967,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
         <v>1521</v>
       </c>
@@ -12946,7 +12981,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
         <v>1523</v>
       </c>
@@ -12960,7 +12995,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
         <v>1525</v>
       </c>
@@ -12974,7 +13009,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
         <v>1527</v>
       </c>
@@ -12988,7 +13023,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
         <v>1529</v>
       </c>
@@ -13002,7 +13037,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="s">
         <v>1531</v>
       </c>
@@ -13016,7 +13051,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
         <v>1533</v>
       </c>
@@ -13030,7 +13065,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
         <v>1535</v>
       </c>
@@ -13044,7 +13079,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" s="3" t="s">
         <v>1537</v>
       </c>
@@ -13058,7 +13093,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
         <v>1539</v>
       </c>
@@ -13072,7 +13107,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
         <v>1541</v>
       </c>
@@ -13086,7 +13121,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
         <v>1543</v>
       </c>
@@ -13100,7 +13135,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
         <v>1545</v>
       </c>
@@ -13114,7 +13149,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
         <v>1547</v>
       </c>
@@ -13128,7 +13163,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="s">
         <v>1549</v>
       </c>
@@ -13142,7 +13177,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="s">
         <v>1551</v>
       </c>
@@ -13156,7 +13191,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
         <v>1553</v>
       </c>
@@ -13170,7 +13205,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
         <v>1555</v>
       </c>
@@ -13184,7 +13219,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
         <v>1557</v>
       </c>
@@ -13198,7 +13233,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
         <v>1559</v>
       </c>
@@ -13212,7 +13247,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
         <v>1561</v>
       </c>
@@ -13226,7 +13261,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
         <v>1563</v>
       </c>
@@ -13240,7 +13275,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
         <v>1565</v>
       </c>
@@ -13254,7 +13289,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
         <v>1567</v>
       </c>
@@ -13268,7 +13303,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
         <v>1569</v>
       </c>
@@ -13282,7 +13317,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
         <v>1571</v>
       </c>
@@ -13296,7 +13331,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="s">
         <v>1573</v>
       </c>
@@ -13310,7 +13345,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
         <v>1575</v>
       </c>
@@ -13324,7 +13359,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
         <v>1577</v>
       </c>
@@ -13338,7 +13373,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="s">
         <v>1579</v>
       </c>
@@ -13352,7 +13387,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
         <v>1581</v>
       </c>
@@ -13366,7 +13401,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
         <v>1583</v>
       </c>
@@ -13380,7 +13415,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
         <v>1585</v>
       </c>
@@ -13394,7 +13429,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
         <v>1587</v>
       </c>
@@ -13408,7 +13443,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A302" s="3" t="s">
         <v>1589</v>
       </c>
@@ -13422,7 +13457,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" s="3" t="s">
         <v>1591</v>
       </c>
@@ -13436,7 +13471,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" s="3" t="s">
         <v>1593</v>
       </c>
@@ -13450,7 +13485,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="3" t="s">
         <v>1595</v>
       </c>
@@ -13464,7 +13499,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" s="3" t="s">
         <v>1597</v>
       </c>
@@ -13478,7 +13513,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" s="3" t="s">
         <v>1599</v>
       </c>
@@ -13492,7 +13527,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="3" t="s">
         <v>1601</v>
       </c>
@@ -13506,7 +13541,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" s="3" t="s">
         <v>1603</v>
       </c>
@@ -13520,7 +13555,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A310" s="3" t="s">
         <v>1605</v>
       </c>
@@ -13534,7 +13569,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="3" t="s">
         <v>1607</v>
       </c>
@@ -13548,7 +13583,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" s="3" t="s">
         <v>1609</v>
       </c>
@@ -13562,7 +13597,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" s="3" t="s">
         <v>1611</v>
       </c>
@@ -13576,7 +13611,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="3" t="s">
         <v>1613</v>
       </c>
@@ -13590,7 +13625,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" s="3" t="s">
         <v>1615</v>
       </c>
@@ -13604,7 +13639,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" s="3" t="s">
         <v>1617</v>
       </c>
@@ -13618,7 +13653,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="3" t="s">
         <v>1619</v>
       </c>
@@ -13632,7 +13667,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" s="3" t="s">
         <v>1621</v>
       </c>
@@ -13646,7 +13681,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" s="3" t="s">
         <v>1623</v>
       </c>
@@ -13660,7 +13695,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="3" t="s">
         <v>1625</v>
       </c>
@@ -13674,7 +13709,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" s="3" t="s">
         <v>1627</v>
       </c>
@@ -13688,7 +13723,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" s="3" t="s">
         <v>1629</v>
       </c>
@@ -13702,7 +13737,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="3" t="s">
         <v>1631</v>
       </c>
@@ -13716,7 +13751,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" s="3" t="s">
         <v>1633</v>
       </c>
@@ -13730,7 +13765,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" s="3" t="s">
         <v>1635</v>
       </c>
@@ -13744,7 +13779,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="3" t="s">
         <v>1637</v>
       </c>
@@ -13758,7 +13793,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" s="3" t="s">
         <v>1639</v>
       </c>
@@ -13772,7 +13807,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" s="3" t="s">
         <v>1641</v>
       </c>
@@ -13786,7 +13821,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="3" t="s">
         <v>1643</v>
       </c>
@@ -13800,7 +13835,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A330" s="3" t="s">
         <v>1645</v>
       </c>
@@ -13814,7 +13849,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" s="3" t="s">
         <v>1647</v>
       </c>
@@ -13828,7 +13863,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="3" t="s">
         <v>1649</v>
       </c>
@@ -13842,7 +13877,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" s="3" t="s">
         <v>1651</v>
       </c>
@@ -13856,7 +13891,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" s="3" t="s">
         <v>1653</v>
       </c>
@@ -13870,7 +13905,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="3" t="s">
         <v>1655</v>
       </c>
@@ -13884,7 +13919,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" s="3" t="s">
         <v>1657</v>
       </c>
@@ -13898,7 +13933,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" s="3" t="s">
         <v>1659</v>
       </c>
@@ -13912,7 +13947,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="3" t="s">
         <v>1661</v>
       </c>
@@ -13926,7 +13961,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" s="3" t="s">
         <v>1663</v>
       </c>
@@ -13940,7 +13975,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" s="3" t="s">
         <v>1665</v>
       </c>
@@ -13954,7 +13989,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="3" t="s">
         <v>1667</v>
       </c>
@@ -13968,7 +14003,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" s="3" t="s">
         <v>1669</v>
       </c>
@@ -13982,7 +14017,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" s="3" t="s">
         <v>1671</v>
       </c>
@@ -13996,7 +14031,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A344" s="3" t="s">
         <v>1673</v>
       </c>
@@ -14010,7 +14045,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A345" s="3" t="s">
         <v>1675</v>
       </c>
@@ -14024,7 +14059,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" s="3" t="s">
         <v>1677</v>
       </c>
@@ -14038,7 +14073,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="3" t="s">
         <v>1679</v>
       </c>
@@ -14052,7 +14087,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" s="3" t="s">
         <v>1681</v>
       </c>
@@ -14066,7 +14101,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A349" s="3" t="s">
         <v>1683</v>
       </c>
@@ -14080,7 +14115,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="3" t="s">
         <v>1685</v>
       </c>
@@ -14094,7 +14129,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" s="3" t="s">
         <v>1687</v>
       </c>
@@ -14108,7 +14143,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" s="3" t="s">
         <v>1689</v>
       </c>
@@ -14122,7 +14157,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A353" s="3" t="s">
         <v>1691</v>
       </c>
@@ -14136,7 +14171,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" s="3" t="s">
         <v>1693</v>
       </c>
@@ -14150,7 +14185,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" s="3" t="s">
         <v>1695</v>
       </c>
@@ -14164,7 +14199,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="3" t="s">
         <v>1697</v>
       </c>
@@ -14178,7 +14213,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" s="3" t="s">
         <v>1699</v>
       </c>
@@ -14192,7 +14227,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" s="3" t="s">
         <v>1701</v>
       </c>
@@ -14206,7 +14241,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A359" s="3" t="s">
         <v>1703</v>
       </c>
@@ -14220,7 +14255,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A360" s="3" t="s">
         <v>1705</v>
       </c>
@@ -14234,7 +14269,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" s="3" t="s">
         <v>1707</v>
       </c>
@@ -14248,7 +14283,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="3" t="s">
         <v>1709</v>
       </c>
@@ -14262,7 +14297,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" s="3" t="s">
         <v>1711</v>
       </c>
@@ -14276,7 +14311,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" s="3" t="s">
         <v>1713</v>
       </c>
@@ -14290,7 +14325,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="3" t="s">
         <v>1715</v>
       </c>
@@ -14304,7 +14339,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" s="3" t="s">
         <v>1717</v>
       </c>
@@ -14318,7 +14353,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" s="3" t="s">
         <v>1719</v>
       </c>
@@ -14332,7 +14367,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="3" t="s">
         <v>1721</v>
       </c>
@@ -14346,7 +14381,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" s="3" t="s">
         <v>1723</v>
       </c>
@@ -14360,7 +14395,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" s="3" t="s">
         <v>1725</v>
       </c>
@@ -14374,7 +14409,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="3" t="s">
         <v>1727</v>
       </c>
@@ -14388,7 +14423,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" s="3" t="s">
         <v>1729</v>
       </c>
@@ -14402,7 +14437,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373" s="3" t="s">
         <v>1731</v>
       </c>
@@ -14416,7 +14451,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="3" t="s">
         <v>1733</v>
       </c>
@@ -14430,7 +14465,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375" s="3" t="s">
         <v>1735</v>
       </c>
@@ -14444,7 +14479,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" s="3" t="s">
         <v>1737</v>
       </c>
@@ -14458,7 +14493,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="3" t="s">
         <v>1739</v>
       </c>
@@ -14472,7 +14507,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" s="3" t="s">
         <v>1741</v>
       </c>
@@ -14486,7 +14521,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" s="3" t="s">
         <v>1743</v>
       </c>
@@ -14500,7 +14535,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="3" t="s">
         <v>1745</v>
       </c>
@@ -14514,7 +14549,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" s="3" t="s">
         <v>1747</v>
       </c>
@@ -14528,7 +14563,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" s="3" t="s">
         <v>1749</v>
       </c>
@@ -14542,7 +14577,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="3" t="s">
         <v>1751</v>
       </c>
@@ -14556,7 +14591,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384" s="3" t="s">
         <v>1753</v>
       </c>
@@ -14570,7 +14605,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" s="3" t="s">
         <v>1755</v>
       </c>
@@ -14584,7 +14619,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="3" t="s">
         <v>1757</v>
       </c>
@@ -14598,7 +14633,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387" s="3" t="s">
         <v>1759</v>
       </c>
@@ -14612,7 +14647,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388" s="3" t="s">
         <v>1761</v>
       </c>
@@ -14626,7 +14661,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="3" t="s">
         <v>1763</v>
       </c>
@@ -14640,7 +14675,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" s="3" t="s">
         <v>1765</v>
       </c>
@@ -14654,7 +14689,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" s="3" t="s">
         <v>1767</v>
       </c>
@@ -14668,7 +14703,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="3" t="s">
         <v>1769</v>
       </c>
@@ -14682,7 +14717,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" s="3" t="s">
         <v>1771</v>
       </c>
@@ -14696,7 +14731,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" s="3" t="s">
         <v>1773</v>
       </c>
@@ -14710,7 +14745,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="3" t="s">
         <v>1775</v>
       </c>
@@ -14724,7 +14759,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" s="3" t="s">
         <v>1777</v>
       </c>
@@ -14738,7 +14773,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397" s="3" t="s">
         <v>1779</v>
       </c>
@@ -14752,7 +14787,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="3" t="s">
         <v>1781</v>
       </c>
@@ -14766,7 +14801,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399" s="3" t="s">
         <v>1783</v>
       </c>
@@ -14780,7 +14815,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400" s="3" t="s">
         <v>1785</v>
       </c>
@@ -14794,7 +14829,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="3" t="s">
         <v>1787</v>
       </c>
@@ -14808,7 +14843,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402" s="3" t="s">
         <v>1789</v>
       </c>
@@ -14822,7 +14857,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403" s="3" t="s">
         <v>1791</v>
       </c>
@@ -14836,7 +14871,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="3" t="s">
         <v>1793</v>
       </c>
@@ -14850,7 +14885,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405" s="3" t="s">
         <v>1795</v>
       </c>
@@ -14864,7 +14899,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406" s="3" t="s">
         <v>1797</v>
       </c>
@@ -14878,7 +14913,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="3" t="s">
         <v>1799</v>
       </c>
@@ -14892,7 +14927,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408" s="3" t="s">
         <v>1801</v>
       </c>
@@ -14906,7 +14941,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409" s="3" t="s">
         <v>1803</v>
       </c>
@@ -14920,7 +14955,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="3" t="s">
         <v>1805</v>
       </c>
@@ -14934,7 +14969,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411" s="3" t="s">
         <v>1807</v>
       </c>
@@ -14948,7 +14983,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412" s="3" t="s">
         <v>1809</v>
       </c>
@@ -14962,7 +14997,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="3" t="s">
         <v>1811</v>
       </c>
@@ -14976,7 +15011,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414" s="3" t="s">
         <v>1813</v>
       </c>
@@ -14990,7 +15025,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A415" s="3" t="s">
         <v>1815</v>
       </c>
@@ -15004,7 +15039,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="3" t="s">
         <v>1817</v>
       </c>
@@ -15018,7 +15053,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417" s="3" t="s">
         <v>1819</v>
       </c>
@@ -15032,7 +15067,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418" s="3" t="s">
         <v>1821</v>
       </c>
@@ -15046,7 +15081,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="3" t="s">
         <v>1823</v>
       </c>
@@ -15060,7 +15095,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A420" s="3" t="s">
         <v>1825</v>
       </c>
@@ -15074,7 +15109,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421" s="3" t="s">
         <v>1827</v>
       </c>
@@ -15088,7 +15123,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="3" t="s">
         <v>1829</v>
       </c>
@@ -15102,7 +15137,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423" s="3" t="s">
         <v>1831</v>
       </c>
@@ -15116,7 +15151,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424" s="3" t="s">
         <v>1833</v>
       </c>
@@ -15130,7 +15165,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="3" t="s">
         <v>1835</v>
       </c>
@@ -15144,7 +15179,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426" s="3" t="s">
         <v>1837</v>
       </c>
@@ -15158,7 +15193,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427" s="3" t="s">
         <v>1839</v>
       </c>
@@ -15172,7 +15207,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" s="3" t="s">
         <v>1841</v>
       </c>
@@ -15186,7 +15221,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A429" s="3" t="s">
         <v>1843</v>
       </c>
@@ -15200,7 +15235,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A430" s="3" t="s">
         <v>1845</v>
       </c>
@@ -15214,7 +15249,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="3" t="s">
         <v>1847</v>
       </c>
@@ -15228,7 +15263,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A432" s="3" t="s">
         <v>1849</v>
       </c>
@@ -15242,7 +15277,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A433" s="3" t="s">
         <v>1851</v>
       </c>
@@ -15256,7 +15291,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" s="3" t="s">
         <v>1853</v>
       </c>
@@ -15270,7 +15305,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A435" s="3" t="s">
         <v>1855</v>
       </c>
@@ -15284,7 +15319,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436" s="3" t="s">
         <v>1857</v>
       </c>
@@ -15298,7 +15333,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" s="3" t="s">
         <v>1859</v>
       </c>
@@ -15312,7 +15347,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A438" s="3" t="s">
         <v>1861</v>
       </c>
@@ -15326,7 +15361,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A439" s="3" t="s">
         <v>1863</v>
       </c>
@@ -15340,7 +15375,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" s="3" t="s">
         <v>1865</v>
       </c>
@@ -15354,7 +15389,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A441" s="3" t="s">
         <v>1867</v>
       </c>
@@ -15368,7 +15403,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A442" s="3" t="s">
         <v>1869</v>
       </c>
@@ -15382,7 +15417,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" s="3" t="s">
         <v>1871</v>
       </c>
@@ -15396,7 +15431,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A444" s="3" t="s">
         <v>1873</v>
       </c>
@@ -15410,7 +15445,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A445" s="3" t="s">
         <v>1875</v>
       </c>
@@ -15424,7 +15459,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" s="3" t="s">
         <v>1877</v>
       </c>
@@ -15438,7 +15473,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A447" s="3" t="s">
         <v>1879</v>
       </c>
@@ -15452,7 +15487,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A448" s="3" t="s">
         <v>1881</v>
       </c>
@@ -15466,7 +15501,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A449" s="3" t="s">
         <v>1883</v>
       </c>
@@ -15480,7 +15515,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A450" s="3" t="s">
         <v>1885</v>
       </c>
@@ -15494,7 +15529,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A451" s="3" t="s">
         <v>1887</v>
       </c>
@@ -15508,7 +15543,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="3" t="s">
         <v>1889</v>
       </c>
@@ -15522,7 +15557,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A453" s="3" t="s">
         <v>1891</v>
       </c>
@@ -15536,7 +15571,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A454" s="3" t="s">
         <v>1893</v>
       </c>
@@ -15550,7 +15585,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="3" t="s">
         <v>1895</v>
       </c>
@@ -15564,7 +15599,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A456" s="3" t="s">
         <v>1897</v>
       </c>
@@ -15578,7 +15613,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A457" s="3" t="s">
         <v>1899</v>
       </c>
@@ -15592,7 +15627,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" s="3" t="s">
         <v>1901</v>
       </c>
@@ -15606,7 +15641,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A459" s="3" t="s">
         <v>1903</v>
       </c>
@@ -15620,7 +15655,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A460" s="3" t="s">
         <v>1905</v>
       </c>
@@ -15634,7 +15669,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A461" s="3" t="s">
         <v>1907</v>
       </c>
@@ -15648,7 +15683,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A462" s="3" t="s">
         <v>1909</v>
       </c>
@@ -15662,7 +15697,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A463" s="3" t="s">
         <v>1911</v>
       </c>
@@ -15676,7 +15711,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="3" t="s">
         <v>1913</v>
       </c>
@@ -15690,7 +15725,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A465" s="3" t="s">
         <v>1915</v>
       </c>
@@ -15704,7 +15739,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A466" s="3" t="s">
         <v>1917</v>
       </c>
@@ -15718,7 +15753,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="3" t="s">
         <v>1919</v>
       </c>
@@ -15732,7 +15767,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A468" s="3" t="s">
         <v>1921</v>
       </c>
@@ -15746,7 +15781,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A469" s="3" t="s">
         <v>1923</v>
       </c>
@@ -15760,7 +15795,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" s="3" t="s">
         <v>1925</v>
       </c>
@@ -15774,7 +15809,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A471" s="3" t="s">
         <v>1927</v>
       </c>
@@ -15788,7 +15823,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A472" s="3" t="s">
         <v>1929</v>
       </c>
@@ -15802,7 +15837,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="3" t="s">
         <v>1931</v>
       </c>
@@ -15816,7 +15851,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A474" s="3" t="s">
         <v>1933</v>
       </c>
@@ -15830,7 +15865,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A475" s="3" t="s">
         <v>1935</v>
       </c>
@@ -15844,7 +15879,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" s="3" t="s">
         <v>1937</v>
       </c>
@@ -15858,7 +15893,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A477" s="3" t="s">
         <v>1939</v>
       </c>
@@ -15872,7 +15907,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A478" s="3" t="s">
         <v>1941</v>
       </c>
@@ -15886,7 +15921,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" s="3" t="s">
         <v>1943</v>
       </c>
@@ -15900,7 +15935,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A480" s="3" t="s">
         <v>1945</v>
       </c>
@@ -15914,7 +15949,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A481" s="3" t="s">
         <v>1947</v>
       </c>
@@ -15928,7 +15963,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" s="3" t="s">
         <v>1949</v>
       </c>
@@ -15942,7 +15977,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A483" s="3" t="s">
         <v>1951</v>
       </c>
@@ -15956,7 +15991,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A484" s="3" t="s">
         <v>1953</v>
       </c>
@@ -15970,7 +16005,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="3" t="s">
         <v>1955</v>
       </c>
@@ -15984,7 +16019,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A486" s="3" t="s">
         <v>1957</v>
       </c>
@@ -15998,7 +16033,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A487" s="3" t="s">
         <v>1959</v>
       </c>
@@ -16012,7 +16047,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" s="3" t="s">
         <v>1961</v>
       </c>
@@ -16026,7 +16061,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A489" s="3" t="s">
         <v>1963</v>
       </c>
@@ -16040,7 +16075,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A490" s="3" t="s">
         <v>1965</v>
       </c>
@@ -16054,7 +16089,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="3" t="s">
         <v>1967</v>
       </c>
@@ -16068,7 +16103,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A492" s="3" t="s">
         <v>1969</v>
       </c>
@@ -16082,7 +16117,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A493" s="3" t="s">
         <v>1971</v>
       </c>
@@ -16096,7 +16131,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" s="3" t="s">
         <v>1973</v>
       </c>
@@ -16110,7 +16145,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A495" s="3" t="s">
         <v>1975</v>
       </c>
@@ -16124,7 +16159,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A496" s="3" t="s">
         <v>1977</v>
       </c>
@@ -16138,7 +16173,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" s="3" t="s">
         <v>1979</v>
       </c>
@@ -16152,7 +16187,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A498" s="3" t="s">
         <v>1981</v>
       </c>
@@ -16166,7 +16201,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A499" s="3" t="s">
         <v>1983</v>
       </c>
@@ -16180,7 +16215,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" s="3" t="s">
         <v>1985</v>
       </c>
@@ -16194,7 +16229,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A501" s="3" t="s">
         <v>1987</v>
       </c>
@@ -16208,7 +16243,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A502" s="3" t="s">
         <v>1989</v>
       </c>
@@ -16222,7 +16257,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A503" s="3" t="s">
         <v>1991</v>
       </c>
@@ -16236,7 +16271,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A504" s="3" t="s">
         <v>1993</v>
       </c>
@@ -16250,7 +16285,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A505" s="3" t="s">
         <v>1995</v>
       </c>
@@ -16264,7 +16299,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="3" t="s">
         <v>1997</v>
       </c>
@@ -16278,7 +16313,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A507" s="3" t="s">
         <v>1999</v>
       </c>
@@ -16292,7 +16327,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A508" s="3" t="s">
         <v>2001</v>
       </c>
@@ -16306,7 +16341,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" s="3" t="s">
         <v>2003</v>
       </c>
@@ -16320,7 +16355,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A510" s="3" t="s">
         <v>2005</v>
       </c>
@@ -16334,7 +16369,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A511" s="3" t="s">
         <v>2007</v>
       </c>
@@ -16348,7 +16383,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" s="3" t="s">
         <v>2009</v>
       </c>
@@ -16362,7 +16397,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A513" s="3" t="s">
         <v>2011</v>
       </c>
@@ -16376,7 +16411,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A514" s="3" t="s">
         <v>2013</v>
       </c>
@@ -16390,7 +16425,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" s="3" t="s">
         <v>2015</v>
       </c>
@@ -16404,7 +16439,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A516" s="3" t="s">
         <v>2017</v>
       </c>
@@ -16418,7 +16453,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A517" s="3" t="s">
         <v>2019</v>
       </c>
@@ -16432,7 +16467,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" s="3" t="s">
         <v>2021</v>
       </c>
@@ -16446,7 +16481,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A519" s="3" t="s">
         <v>2023</v>
       </c>
@@ -16460,7 +16495,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A520" s="3" t="s">
         <v>2025</v>
       </c>
@@ -16474,7 +16509,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" s="3" t="s">
         <v>2027</v>
       </c>
@@ -16488,7 +16523,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A522" s="3" t="s">
         <v>2029</v>
       </c>
@@ -16502,7 +16537,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A523" s="3" t="s">
         <v>2031</v>
       </c>
@@ -16516,7 +16551,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A524" s="3" t="s">
         <v>2033</v>
       </c>
@@ -16530,7 +16565,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A525" s="3" t="s">
         <v>2035</v>
       </c>
@@ -16544,7 +16579,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A526" s="3" t="s">
         <v>2037</v>
       </c>
@@ -16558,7 +16593,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" s="3" t="s">
         <v>2039</v>
       </c>
@@ -16572,7 +16607,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A528" s="3" t="s">
         <v>2041</v>
       </c>
@@ -16586,7 +16621,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A529" s="3" t="s">
         <v>2043</v>
       </c>
@@ -16600,7 +16635,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" s="3" t="s">
         <v>2045</v>
       </c>
@@ -16614,7 +16649,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A531" s="3" t="s">
         <v>2047</v>
       </c>
@@ -16628,7 +16663,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A532" s="3" t="s">
         <v>2049</v>
       </c>
@@ -16642,7 +16677,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" s="3" t="s">
         <v>2051</v>
       </c>
@@ -16656,7 +16691,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A534" s="3" t="s">
         <v>2053</v>
       </c>
@@ -16670,7 +16705,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A535" s="3" t="s">
         <v>2055</v>
       </c>
@@ -16684,7 +16719,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" s="3" t="s">
         <v>2057</v>
       </c>
@@ -16698,7 +16733,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A537" s="3" t="s">
         <v>2059</v>
       </c>
@@ -16712,7 +16747,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A538" s="3" t="s">
         <v>2061</v>
       </c>
@@ -16726,7 +16761,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" s="3" t="s">
         <v>2063</v>
       </c>
@@ -16740,7 +16775,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A540" s="3" t="s">
         <v>2065</v>
       </c>
@@ -16754,7 +16789,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A541" s="3" t="s">
         <v>2067</v>
       </c>
@@ -16768,7 +16803,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" s="3" t="s">
         <v>2069</v>
       </c>
@@ -16782,7 +16817,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A543" s="3" t="s">
         <v>2071</v>
       </c>
@@ -16796,7 +16831,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A544" s="3" t="s">
         <v>2073</v>
       </c>
@@ -16810,7 +16845,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" s="3" t="s">
         <v>2075</v>
       </c>
@@ -16824,7 +16859,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A546" s="3" t="s">
         <v>2077</v>
       </c>
@@ -16838,7 +16873,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A547" s="3" t="s">
         <v>2079</v>
       </c>
@@ -16852,7 +16887,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" s="3" t="s">
         <v>2081</v>
       </c>
@@ -16866,7 +16901,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A549" s="3" t="s">
         <v>2083</v>
       </c>
@@ -16880,7 +16915,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A550" s="3" t="s">
         <v>2085</v>
       </c>
@@ -16894,7 +16929,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A551" s="3" t="s">
         <v>2087</v>
       </c>
@@ -16908,7 +16943,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A552" s="3" t="s">
         <v>2089</v>
       </c>
@@ -16922,7 +16957,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A553" s="3" t="s">
         <v>2091</v>
       </c>
@@ -16936,7 +16971,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" s="3" t="s">
         <v>2093</v>
       </c>
@@ -16950,7 +16985,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A555" s="3" t="s">
         <v>2095</v>
       </c>
@@ -16964,7 +16999,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A556" s="3" t="s">
         <v>2097</v>
       </c>
@@ -16978,7 +17013,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" s="3" t="s">
         <v>2099</v>
       </c>
@@ -16992,7 +17027,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A558" s="3" t="s">
         <v>2101</v>
       </c>
@@ -17006,7 +17041,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A559" s="3" t="s">
         <v>2103</v>
       </c>
@@ -17020,7 +17055,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A560" s="3" t="s">
         <v>2105</v>
       </c>
@@ -17034,7 +17069,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A561" s="3" t="s">
         <v>2107</v>
       </c>
@@ -17048,7 +17083,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A562" s="3" t="s">
         <v>2109</v>
       </c>
@@ -17062,7 +17097,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" s="3" t="s">
         <v>2111</v>
       </c>
@@ -17076,7 +17111,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A564" s="3" t="s">
         <v>2113</v>
       </c>
@@ -17090,7 +17125,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A565" s="3" t="s">
         <v>2115</v>
       </c>
@@ -17104,7 +17139,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" s="3" t="s">
         <v>2117</v>
       </c>
@@ -17118,7 +17153,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A567" s="3" t="s">
         <v>2119</v>
       </c>
@@ -17132,7 +17167,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A568" s="3" t="s">
         <v>2122</v>
       </c>
@@ -17146,7 +17181,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" s="3" t="s">
         <v>2124</v>
       </c>
@@ -17160,7 +17195,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A570" s="3" t="s">
         <v>2126</v>
       </c>
@@ -17174,7 +17209,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A571" s="3" t="s">
         <v>2128</v>
       </c>
@@ -17188,7 +17223,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" s="3" t="s">
         <v>2130</v>
       </c>
@@ -17202,7 +17237,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A573" s="3" t="s">
         <v>2132</v>
       </c>
@@ -17216,7 +17251,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A574" s="3" t="s">
         <v>2134</v>
       </c>
@@ -17230,7 +17265,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" s="3" t="s">
         <v>2136</v>
       </c>
@@ -17244,7 +17279,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A576" s="3" t="s">
         <v>2138</v>
       </c>
@@ -17258,7 +17293,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A577" s="3" t="s">
         <v>2140</v>
       </c>
@@ -17272,7 +17307,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" s="3" t="s">
         <v>2142</v>
       </c>
@@ -17286,7 +17321,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A579" s="3" t="s">
         <v>2144</v>
       </c>
@@ -17300,7 +17335,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A580" s="3" t="s">
         <v>2146</v>
       </c>
@@ -17314,7 +17349,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A581" s="3" t="s">
         <v>2148</v>
       </c>
@@ -17328,7 +17363,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A582" s="3" t="s">
         <v>2150</v>
       </c>
@@ -17342,7 +17377,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A583" s="3" t="s">
         <v>2152</v>
       </c>
@@ -17356,7 +17391,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A584" s="3" t="s">
         <v>2154</v>
       </c>
@@ -17370,7 +17405,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A585" s="3" t="s">
         <v>2156</v>
       </c>
@@ -17384,7 +17419,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A586" s="3" t="s">
         <v>2158</v>
       </c>
@@ -17398,7 +17433,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A587" s="3" t="s">
         <v>2160</v>
       </c>
@@ -17412,7 +17447,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A588" s="3" t="s">
         <v>2162</v>
       </c>
@@ -17426,7 +17461,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A589" s="3" t="s">
         <v>2164</v>
       </c>
@@ -17440,7 +17475,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A590" s="3" t="s">
         <v>2166</v>
       </c>
@@ -17454,7 +17489,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A591" s="3" t="s">
         <v>2168</v>
       </c>
@@ -17468,7 +17503,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A592" s="3" t="s">
         <v>2170</v>
       </c>
@@ -17482,7 +17517,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A593" s="3" t="s">
         <v>2172</v>
       </c>
@@ -17496,7 +17531,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A594" s="3" t="s">
         <v>2174</v>
       </c>
@@ -17510,7 +17545,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A595" s="3" t="s">
         <v>2176</v>
       </c>
@@ -17524,7 +17559,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A596" s="3" t="s">
         <v>2178</v>
       </c>
@@ -17538,7 +17573,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A597" s="3" t="s">
         <v>2180</v>
       </c>
@@ -17552,7 +17587,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A598" s="3" t="s">
         <v>2182</v>
       </c>
@@ -17566,7 +17601,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A599" s="3" t="s">
         <v>2184</v>
       </c>
@@ -17580,7 +17615,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A600" s="3" t="s">
         <v>2186</v>
       </c>
@@ -17594,7 +17629,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A601" s="3" t="s">
         <v>2188</v>
       </c>
@@ -17608,7 +17643,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A602" s="3" t="s">
         <v>2190</v>
       </c>
@@ -17622,7 +17657,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A603" s="3" t="s">
         <v>2192</v>
       </c>
@@ -17636,7 +17671,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A604" s="3" t="s">
         <v>2194</v>
       </c>
@@ -17650,7 +17685,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A605" s="3" t="s">
         <v>2196</v>
       </c>
@@ -17664,7 +17699,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A606" s="3" t="s">
         <v>2198</v>
       </c>
@@ -17678,7 +17713,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A607" s="3" t="s">
         <v>2200</v>
       </c>
@@ -17692,7 +17727,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A608" s="3" t="s">
         <v>2202</v>
       </c>
@@ -17706,7 +17741,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A609" s="3" t="s">
         <v>2204</v>
       </c>
@@ -17720,7 +17755,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A610" s="3" t="s">
         <v>2206</v>
       </c>
@@ -17734,7 +17769,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A611" s="3" t="s">
         <v>2208</v>
       </c>
@@ -17748,7 +17783,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A612" s="3" t="s">
         <v>2210</v>
       </c>
@@ -17762,7 +17797,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A613" s="3" t="s">
         <v>2212</v>
       </c>
@@ -17776,7 +17811,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A614" s="3" t="s">
         <v>2214</v>
       </c>
@@ -17790,7 +17825,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A615" s="3" t="s">
         <v>2216</v>
       </c>
@@ -17804,7 +17839,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A616" s="3" t="s">
         <v>2218</v>
       </c>
@@ -17818,7 +17853,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A617" s="3" t="s">
         <v>2220</v>
       </c>
@@ -17832,7 +17867,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A618" s="3" t="s">
         <v>2222</v>
       </c>
@@ -17846,7 +17881,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A619" s="3" t="s">
         <v>2224</v>
       </c>
@@ -17860,7 +17895,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A620" s="3" t="s">
         <v>2226</v>
       </c>
@@ -17874,7 +17909,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A621" s="3" t="s">
         <v>2228</v>
       </c>
@@ -17888,7 +17923,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A622" s="3" t="s">
         <v>2230</v>
       </c>
@@ -17902,7 +17937,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A623" s="3" t="s">
         <v>2232</v>
       </c>
@@ -17916,7 +17951,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A624" s="3" t="s">
         <v>2234</v>
       </c>
@@ -17930,7 +17965,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A625" s="3" t="s">
         <v>2236</v>
       </c>
@@ -17944,7 +17979,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A626" s="3" t="s">
         <v>2238</v>
       </c>
@@ -17958,7 +17993,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A627" s="3" t="s">
         <v>2240</v>
       </c>
@@ -17972,7 +18007,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A628" s="3" t="s">
         <v>2242</v>
       </c>
@@ -17986,7 +18021,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A629" s="3" t="s">
         <v>2244</v>
       </c>
@@ -18000,7 +18035,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A630" s="3" t="s">
         <v>2246</v>
       </c>
@@ -18014,7 +18049,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A631" s="3" t="s">
         <v>2248</v>
       </c>
@@ -18028,7 +18063,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A632" s="3" t="s">
         <v>2250</v>
       </c>
@@ -18042,7 +18077,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A633" s="3" t="s">
         <v>2252</v>
       </c>
@@ -18056,7 +18091,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A634" s="3" t="s">
         <v>2254</v>
       </c>
@@ -18070,7 +18105,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A635" s="3" t="s">
         <v>2256</v>
       </c>
@@ -18084,7 +18119,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A636" s="3" t="s">
         <v>2258</v>
       </c>
@@ -18098,7 +18133,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A637" s="3" t="s">
         <v>2260</v>
       </c>
@@ -18112,7 +18147,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A638" s="3" t="s">
         <v>2262</v>
       </c>
@@ -18126,7 +18161,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A639" s="3" t="s">
         <v>2264</v>
       </c>
@@ -18140,7 +18175,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A640" s="3" t="s">
         <v>2266</v>
       </c>
@@ -18154,7 +18189,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A641" s="3" t="s">
         <v>2268</v>
       </c>
@@ -18168,7 +18203,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A642" s="3" t="s">
         <v>2270</v>
       </c>
@@ -18182,7 +18217,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A643" s="3" t="s">
         <v>2272</v>
       </c>
@@ -18196,7 +18231,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A644" s="3" t="s">
         <v>2274</v>
       </c>
@@ -18210,7 +18245,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A645" s="3" t="s">
         <v>2276</v>
       </c>
@@ -18224,7 +18259,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A646" s="3" t="s">
         <v>2278</v>
       </c>
@@ -18238,7 +18273,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A647" s="3" t="s">
         <v>2280</v>
       </c>
@@ -18252,7 +18287,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A648" s="3" t="s">
         <v>2282</v>
       </c>
@@ -18266,7 +18301,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A649" s="3" t="s">
         <v>2284</v>
       </c>
@@ -18280,7 +18315,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A650" s="3" t="s">
         <v>2286</v>
       </c>
@@ -18294,7 +18329,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A651" s="3" t="s">
         <v>2288</v>
       </c>
@@ -18308,7 +18343,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A652" s="3" t="s">
         <v>2290</v>
       </c>
@@ -18322,7 +18357,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A653" s="3" t="s">
         <v>2292</v>
       </c>
@@ -18336,7 +18371,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="654" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A654" s="3" t="s">
         <v>2294</v>
       </c>
@@ -18350,7 +18385,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A655" s="3" t="s">
         <v>2296</v>
       </c>
@@ -18364,7 +18399,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="656" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A656" s="3" t="s">
         <v>2298</v>
       </c>
@@ -18378,7 +18413,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="657" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A657" s="3" t="s">
         <v>2300</v>
       </c>
@@ -18392,7 +18427,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="658" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A658" s="3" t="s">
         <v>2302</v>
       </c>
@@ -18406,7 +18441,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="659" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A659" s="3" t="s">
         <v>2304</v>
       </c>
@@ -18420,7 +18455,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="660" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A660" s="3" t="s">
         <v>2306</v>
       </c>
@@ -18434,7 +18469,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="661" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A661" s="3" t="s">
         <v>2308</v>
       </c>
@@ -18448,7 +18483,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A662" s="3" t="s">
         <v>2310</v>
       </c>
@@ -18462,7 +18497,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="663" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A663" s="3" t="s">
         <v>2312</v>
       </c>
@@ -18476,7 +18511,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="664" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A664" s="3" t="s">
         <v>2314</v>
       </c>
@@ -18490,7 +18525,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A665" s="3" t="s">
         <v>2316</v>
       </c>
@@ -18504,7 +18539,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="666" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A666" s="3" t="s">
         <v>2318</v>
       </c>
@@ -18518,7 +18553,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="667" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A667" s="3" t="s">
         <v>2320</v>
       </c>
@@ -18532,7 +18567,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="668" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A668" s="3" t="s">
         <v>2322</v>
       </c>
@@ -18546,7 +18581,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A669" s="3" t="s">
         <v>2324</v>
       </c>
@@ -18560,7 +18595,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="670" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A670" s="3" t="s">
         <v>2326</v>
       </c>
@@ -18574,7 +18609,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="671" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A671" s="3" t="s">
         <v>2328</v>
       </c>
@@ -18588,7 +18623,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="672" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A672" s="3" t="s">
         <v>2330</v>
       </c>
@@ -18602,7 +18637,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A673" s="3" t="s">
         <v>2332</v>
       </c>
@@ -18616,7 +18651,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="674" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A674" s="3" t="s">
         <v>2334</v>
       </c>
@@ -18630,7 +18665,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="675" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A675" s="3" t="s">
         <v>2336</v>
       </c>
@@ -18644,7 +18679,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A676" s="3" t="s">
         <v>2338</v>
       </c>
@@ -18658,7 +18693,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="677" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A677" s="3" t="s">
         <v>2340</v>
       </c>
@@ -18672,7 +18707,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="678" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A678" s="3" t="s">
         <v>2342</v>
       </c>
@@ -18686,7 +18721,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A679" s="3" t="s">
         <v>2344</v>
       </c>
@@ -18700,7 +18735,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="680" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A680" s="3" t="s">
         <v>2346</v>
       </c>
@@ -18714,7 +18749,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="681" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A681" s="3" t="s">
         <v>2348</v>
       </c>
@@ -18728,7 +18763,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A682" s="3" t="s">
         <v>2350</v>
       </c>
@@ -18742,7 +18777,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="683" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A683" s="3" t="s">
         <v>2352</v>
       </c>
@@ -18756,7 +18791,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="684" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A684" s="3" t="s">
         <v>2354</v>
       </c>
@@ -18770,7 +18805,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A685" s="3" t="s">
         <v>2356</v>
       </c>
@@ -18784,7 +18819,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="686" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A686" s="3" t="s">
         <v>2358</v>
       </c>
@@ -18798,7 +18833,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A687" s="3" t="s">
         <v>2360</v>
       </c>
@@ -18812,7 +18847,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A688" s="3" t="s">
         <v>2362</v>
       </c>
@@ -18826,7 +18861,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="689" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A689" s="3" t="s">
         <v>2364</v>
       </c>
@@ -18840,7 +18875,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="690" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A690" s="3" t="s">
         <v>2366</v>
       </c>
@@ -18854,7 +18889,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="691" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A691" s="3" t="s">
         <v>2368</v>
       </c>
@@ -18868,7 +18903,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A692" s="3" t="s">
         <v>2370</v>
       </c>
@@ -18882,7 +18917,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A693" s="3" t="s">
         <v>2372</v>
       </c>
@@ -18896,7 +18931,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="694" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A694" s="3" t="s">
         <v>2374</v>
       </c>
@@ -18910,7 +18945,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="695" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A695" s="3" t="s">
         <v>2376</v>
       </c>
@@ -18924,7 +18959,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A696" s="3" t="s">
         <v>2378</v>
       </c>
@@ -18938,7 +18973,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A697" s="3" t="s">
         <v>2380</v>
       </c>
@@ -18952,7 +18987,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="698" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A698" s="3" t="s">
         <v>2382</v>
       </c>
@@ -18966,7 +19001,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A699" s="3" t="s">
         <v>2384</v>
       </c>
@@ -18980,7 +19015,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="700" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A700" s="3" t="s">
         <v>2386</v>
       </c>
@@ -18994,7 +19029,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="701" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A701" s="3" t="s">
         <v>2388</v>
       </c>
@@ -19008,7 +19043,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A702" s="3" t="s">
         <v>2390</v>
       </c>
@@ -19022,7 +19057,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A703" s="3" t="s">
         <v>2392</v>
       </c>
@@ -19036,7 +19071,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="704" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A704" s="3" t="s">
         <v>2394</v>
       </c>
@@ -19050,7 +19085,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="705" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A705" s="3" t="s">
         <v>2396</v>
       </c>
@@ -19064,7 +19099,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="706" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A706" s="3" t="s">
         <v>2398</v>
       </c>
@@ -19078,7 +19113,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A707" s="3" t="s">
         <v>2400</v>
       </c>
@@ -19092,7 +19127,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="708" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A708" s="3" t="s">
         <v>2402</v>
       </c>
@@ -19106,7 +19141,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A709" s="3" t="s">
         <v>2404</v>
       </c>
@@ -19120,7 +19155,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A710" s="3" t="s">
         <v>2406</v>
       </c>
@@ -19134,7 +19169,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="711" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A711" s="3" t="s">
         <v>2408</v>
       </c>
@@ -19148,7 +19183,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="712" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A712" s="3" t="s">
         <v>2410</v>
       </c>
@@ -19162,7 +19197,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="713" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A713" s="3" t="s">
         <v>2412</v>
       </c>
@@ -19176,7 +19211,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A714" s="3" t="s">
         <v>2414</v>
       </c>
@@ -19190,7 +19225,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="715" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A715" s="3" t="s">
         <v>2416</v>
       </c>
@@ -19204,7 +19239,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="716" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A716" s="3" t="s">
         <v>2418</v>
       </c>
@@ -19218,7 +19253,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="717" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A717" s="3" t="s">
         <v>2420</v>
       </c>
@@ -19232,7 +19267,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A718" s="3" t="s">
         <v>2422</v>
       </c>
@@ -19246,7 +19281,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A719" s="3" t="s">
         <v>2424</v>
       </c>
@@ -19260,7 +19295,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A720" s="3" t="s">
         <v>2426</v>
       </c>
@@ -19274,7 +19309,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="721" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A721" s="3" t="s">
         <v>2428</v>
       </c>
@@ -19288,7 +19323,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A722" s="3" t="s">
         <v>2430</v>
       </c>
@@ -19302,7 +19337,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="723" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A723" s="3" t="s">
         <v>2432</v>
       </c>
@@ -19316,7 +19351,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A724" s="3" t="s">
         <v>2434</v>
       </c>
@@ -19330,7 +19365,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="725" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A725" s="3" t="s">
         <v>2436</v>
       </c>
@@ -19344,7 +19379,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A726" s="3" t="s">
         <v>2438</v>
       </c>
@@ -19358,7 +19393,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="727" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A727" s="3" t="s">
         <v>2440</v>
       </c>
@@ -19372,7 +19407,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A728" s="3" t="s">
         <v>2442</v>
       </c>
@@ -19386,7 +19421,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="729" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A729" s="3" t="s">
         <v>2444</v>
       </c>
@@ -19400,7 +19435,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="730" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A730" s="3" t="s">
         <v>2446</v>
       </c>
@@ -19414,7 +19449,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A731" s="3" t="s">
         <v>2448</v>
       </c>
@@ -19428,7 +19463,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A732" s="3" t="s">
         <v>2450</v>
       </c>
@@ -19442,7 +19477,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="733" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A733" s="3" t="s">
         <v>2452</v>
       </c>
@@ -19456,7 +19491,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="734" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A734" s="3" t="s">
         <v>2454</v>
       </c>
@@ -19470,7 +19505,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="735" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A735" s="3" t="s">
         <v>2456</v>
       </c>
@@ -19484,7 +19519,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="736" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A736" s="3" t="s">
         <v>2458</v>
       </c>
@@ -19498,7 +19533,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="737" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A737" s="3" t="s">
         <v>2460</v>
       </c>
@@ -19512,7 +19547,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="738" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A738" s="3" t="s">
         <v>2462</v>
       </c>
@@ -19526,7 +19561,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A739" s="3" t="s">
         <v>2464</v>
       </c>
@@ -19540,7 +19575,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="740" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A740" s="3" t="s">
         <v>2466</v>
       </c>
@@ -19554,7 +19589,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="741" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A741" s="3" t="s">
         <v>2468</v>
       </c>
@@ -19568,7 +19603,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="742" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A742" s="3" t="s">
         <v>2470</v>
       </c>
@@ -19582,7 +19617,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="743" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A743" s="3" t="s">
         <v>2472</v>
       </c>
@@ -19596,7 +19631,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="744" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A744" s="3" t="s">
         <v>2474</v>
       </c>
@@ -19610,7 +19645,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A745" s="3" t="s">
         <v>2476</v>
       </c>
@@ -19624,7 +19659,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="746" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A746" s="3" t="s">
         <v>2478</v>
       </c>
@@ -19638,7 +19673,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="747" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A747" s="3" t="s">
         <v>2480</v>
       </c>
@@ -19652,7 +19687,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="748" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A748" s="3" t="s">
         <v>2482</v>
       </c>
@@ -19666,7 +19701,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="749" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A749" s="3" t="s">
         <v>2484</v>
       </c>
@@ -19680,7 +19715,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="750" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A750" s="3" t="s">
         <v>2486</v>
       </c>
@@ -19694,7 +19729,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="751" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A751" s="3" t="s">
         <v>2488</v>
       </c>
@@ -19708,7 +19743,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="752" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A752" s="3" t="s">
         <v>2490</v>
       </c>
@@ -19722,7 +19757,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A753" s="3" t="s">
         <v>2492</v>
       </c>
@@ -19736,7 +19771,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="754" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A754" s="3" t="s">
         <v>2494</v>
       </c>
@@ -19750,7 +19785,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="755" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A755" s="3" t="s">
         <v>2496</v>
       </c>
@@ -19764,7 +19799,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="756" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A756" s="3" t="s">
         <v>2498</v>
       </c>
@@ -19778,7 +19813,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="757" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A757" s="3" t="s">
         <v>2500</v>
       </c>
@@ -19792,7 +19827,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="758" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A758" s="3" t="s">
         <v>2502</v>
       </c>
@@ -19806,7 +19841,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A759" s="3" t="s">
         <v>2504</v>
       </c>
@@ -19820,7 +19855,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A760" s="3" t="s">
         <v>2506</v>
       </c>
@@ -19834,7 +19869,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="761" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A761" s="3" t="s">
         <v>2508</v>
       </c>
@@ -19848,7 +19883,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A762" s="3" t="s">
         <v>2510</v>
       </c>
@@ -19862,7 +19897,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A763" s="3" t="s">
         <v>2512</v>
       </c>
@@ -19876,7 +19911,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A764" s="3" t="s">
         <v>2514</v>
       </c>
@@ -19890,7 +19925,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A765" s="3" t="s">
         <v>2516</v>
       </c>
@@ -19904,7 +19939,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A766" s="3" t="s">
         <v>2518</v>
       </c>
@@ -19918,7 +19953,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A767" s="3" t="s">
         <v>2520</v>
       </c>
@@ -19932,7 +19967,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="768" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A768" s="3" t="s">
         <v>2522</v>
       </c>
@@ -19946,7 +19981,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A769" s="3" t="s">
         <v>2524</v>
       </c>
@@ -19960,7 +19995,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A770" s="3" t="s">
         <v>2526</v>
       </c>
@@ -19974,7 +20009,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A771" s="3" t="s">
         <v>2528</v>
       </c>
@@ -19988,7 +20023,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A772" s="3" t="s">
         <v>2530</v>
       </c>
@@ -20002,7 +20037,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A773" s="3" t="s">
         <v>2532</v>
       </c>
@@ -20016,7 +20051,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A774" s="3" t="s">
         <v>2534</v>
       </c>
@@ -20030,7 +20065,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A775" s="3" t="s">
         <v>2536</v>
       </c>
@@ -20044,7 +20079,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A776" s="3" t="s">
         <v>2538</v>
       </c>
@@ -20058,7 +20093,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A777" s="3" t="s">
         <v>2540</v>
       </c>
@@ -20072,7 +20107,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A778" s="3" t="s">
         <v>2542</v>
       </c>
@@ -20086,7 +20121,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A779" s="3" t="s">
         <v>2544</v>
       </c>
@@ -20100,7 +20135,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A780" s="3" t="s">
         <v>2546</v>
       </c>
@@ -20114,7 +20149,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A781" s="3" t="s">
         <v>2548</v>
       </c>
@@ -20128,7 +20163,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A782" s="3" t="s">
         <v>2550</v>
       </c>
@@ -20142,7 +20177,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A783" s="3" t="s">
         <v>2552</v>
       </c>
@@ -20156,7 +20191,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A784" s="3" t="s">
         <v>2554</v>
       </c>
@@ -20170,7 +20205,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A785" s="3" t="s">
         <v>2556</v>
       </c>
@@ -20184,7 +20219,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A786" s="3" t="s">
         <v>2558</v>
       </c>
@@ -20198,7 +20233,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A787" s="3" t="s">
         <v>2560</v>
       </c>
@@ -20212,7 +20247,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A788" s="3" t="s">
         <v>2562</v>
       </c>
@@ -20226,7 +20261,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A789" s="3" t="s">
         <v>2564</v>
       </c>
@@ -20240,7 +20275,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A790" s="3" t="s">
         <v>2566</v>
       </c>
@@ -20254,7 +20289,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A791" s="3" t="s">
         <v>2568</v>
       </c>
@@ -20268,7 +20303,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A792" s="3" t="s">
         <v>2570</v>
       </c>
@@ -20282,7 +20317,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A793" s="3" t="s">
         <v>2572</v>
       </c>
@@ -20296,7 +20331,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A794" s="3" t="s">
         <v>2574</v>
       </c>
@@ -20310,7 +20345,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A795" s="3" t="s">
         <v>2576</v>
       </c>
@@ -20324,7 +20359,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A796" s="3" t="s">
         <v>2578</v>
       </c>
@@ -20338,7 +20373,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A797" s="3" t="s">
         <v>2580</v>
       </c>
@@ -20352,7 +20387,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A798" s="3" t="s">
         <v>2582</v>
       </c>
@@ -20366,7 +20401,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A799" s="3" t="s">
         <v>2584</v>
       </c>
@@ -20380,7 +20415,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A800" s="3" t="s">
         <v>2586</v>
       </c>
@@ -20394,7 +20429,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A801" s="3" t="s">
         <v>2588</v>
       </c>
@@ -20408,7 +20443,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A802" s="3" t="s">
         <v>2590</v>
       </c>
@@ -20422,7 +20457,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="803" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A803" s="3" t="s">
         <v>2592</v>
       </c>
@@ -20436,7 +20471,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A804" s="3" t="s">
         <v>2594</v>
       </c>
@@ -20450,7 +20485,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="805" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A805" s="3" t="s">
         <v>2596</v>
       </c>
@@ -20464,7 +20499,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A806" s="3" t="s">
         <v>2598</v>
       </c>
@@ -20478,7 +20513,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A807" s="3" t="s">
         <v>2600</v>
       </c>
@@ -20492,7 +20527,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A808" s="3" t="s">
         <v>2602</v>
       </c>
@@ -20506,7 +20541,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A809" s="3" t="s">
         <v>2604</v>
       </c>
@@ -20520,7 +20555,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A810" s="3" t="s">
         <v>2606</v>
       </c>
@@ -20534,7 +20569,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A811" s="3" t="s">
         <v>2608</v>
       </c>
@@ -20548,7 +20583,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A812" s="3" t="s">
         <v>2610</v>
       </c>
@@ -20562,7 +20597,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A813" s="3" t="s">
         <v>2612</v>
       </c>
@@ -20576,7 +20611,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="814" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A814" s="3" t="s">
         <v>2614</v>
       </c>
@@ -20590,7 +20625,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="815" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A815" s="3" t="s">
         <v>2616</v>
       </c>
@@ -20604,7 +20639,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A816" s="3" t="s">
         <v>2618</v>
       </c>
@@ -20618,7 +20653,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A817" s="3" t="s">
         <v>2620</v>
       </c>
@@ -20632,7 +20667,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A818" s="3" t="s">
         <v>2622</v>
       </c>
@@ -20646,7 +20681,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A819" s="3" t="s">
         <v>2624</v>
       </c>
@@ -20660,7 +20695,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A820" s="3" t="s">
         <v>2626</v>
       </c>
@@ -20674,7 +20709,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A821" s="3" t="s">
         <v>2628</v>
       </c>
@@ -20688,7 +20723,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A822" s="3" t="s">
         <v>2630</v>
       </c>
@@ -20702,7 +20737,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A823" s="3" t="s">
         <v>2632</v>
       </c>
@@ -20716,7 +20751,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A824" s="3" t="s">
         <v>2634</v>
       </c>
@@ -20730,7 +20765,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="825" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A825" s="3" t="s">
         <v>2636</v>
       </c>
@@ -20744,7 +20779,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="826" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A826" s="3" t="s">
         <v>2638</v>
       </c>
@@ -20758,7 +20793,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="827" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A827" s="3" t="s">
         <v>2640</v>
       </c>
@@ -20772,7 +20807,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A828" s="3" t="s">
         <v>2642</v>
       </c>
@@ -20786,7 +20821,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A829" s="3" t="s">
         <v>2644</v>
       </c>
@@ -20800,7 +20835,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A830" s="3" t="s">
         <v>2646</v>
       </c>
@@ -20814,7 +20849,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A831" s="3" t="s">
         <v>2648</v>
       </c>
@@ -20828,7 +20863,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="832" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A832" s="3" t="s">
         <v>2650</v>
       </c>
@@ -20842,7 +20877,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A833" s="3" t="s">
         <v>2652</v>
       </c>
@@ -20856,7 +20891,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A834" s="3" t="s">
         <v>2654</v>
       </c>
@@ -20870,7 +20905,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A835" s="3" t="s">
         <v>2656</v>
       </c>
@@ -20884,7 +20919,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A836" s="3" t="s">
         <v>2658</v>
       </c>
@@ -20898,7 +20933,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="837" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A837" s="3" t="s">
         <v>2660</v>
       </c>
@@ -20912,7 +20947,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A838" s="3" t="s">
         <v>2662</v>
       </c>
@@ -20926,7 +20961,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A839" s="3" t="s">
         <v>2664</v>
       </c>
@@ -20940,7 +20975,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A840" s="3" t="s">
         <v>2666</v>
       </c>
@@ -20954,7 +20989,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="841" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A841" s="3" t="s">
         <v>2668</v>
       </c>
@@ -20968,7 +21003,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="842" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A842" s="3" t="s">
         <v>2670</v>
       </c>
@@ -20982,7 +21017,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A843" s="3" t="s">
         <v>2672</v>
       </c>
@@ -20996,7 +21031,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A844" s="3" t="s">
         <v>2674</v>
       </c>
@@ -21010,7 +21045,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A845" s="3" t="s">
         <v>2676</v>
       </c>
@@ -21024,7 +21059,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A846" s="3" t="s">
         <v>2678</v>
       </c>
@@ -21038,7 +21073,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="847" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A847" s="3" t="s">
         <v>2680</v>
       </c>
@@ -21052,7 +21087,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A848" s="3" t="s">
         <v>2682</v>
       </c>
@@ -21066,7 +21101,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="849" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A849" s="3" t="s">
         <v>2684</v>
       </c>
@@ -21080,7 +21115,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A850" s="3" t="s">
         <v>2686</v>
       </c>
@@ -21094,7 +21129,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="851" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A851" s="3" t="s">
         <v>2688</v>
       </c>
@@ -21108,7 +21143,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="852" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A852" s="3" t="s">
         <v>2690</v>
       </c>
@@ -21122,7 +21157,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="853" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A853" s="3" t="s">
         <v>2692</v>
       </c>
@@ -21136,7 +21171,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="854" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A854" s="3" t="s">
         <v>2694</v>
       </c>
@@ -21150,7 +21185,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="855" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A855" s="3" t="s">
         <v>2696</v>
       </c>
@@ -21164,7 +21199,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="856" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A856" s="3" t="s">
         <v>2698</v>
       </c>
@@ -21178,7 +21213,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="857" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A857" s="3" t="s">
         <v>2700</v>
       </c>
@@ -21192,7 +21227,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="858" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A858" s="3" t="s">
         <v>2702</v>
       </c>
@@ -21206,7 +21241,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A859" s="3" t="s">
         <v>2704</v>
       </c>
@@ -21220,7 +21255,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="860" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A860" s="3" t="s">
         <v>2706</v>
       </c>
@@ -21234,7 +21269,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="861" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A861" s="3" t="s">
         <v>2708</v>
       </c>
@@ -21248,7 +21283,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="862" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A862" s="3" t="s">
         <v>2710</v>
       </c>
@@ -21262,7 +21297,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="863" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A863" s="3" t="s">
         <v>2712</v>
       </c>
@@ -21276,7 +21311,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A864" s="3" t="s">
         <v>2714</v>
       </c>
@@ -21290,7 +21325,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A865" s="3" t="s">
         <v>2716</v>
       </c>
@@ -21304,7 +21339,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="866" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A866" s="3" t="s">
         <v>2718</v>
       </c>
@@ -21318,7 +21353,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="867" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A867" s="3" t="s">
         <v>2720</v>
       </c>
@@ -21332,7 +21367,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="868" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A868" s="3" t="s">
         <v>2722</v>
       </c>
@@ -21346,7 +21381,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="869" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A869" s="3" t="s">
         <v>2724</v>
       </c>
@@ -21360,7 +21395,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="870" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A870" s="3" t="s">
         <v>2726</v>
       </c>
@@ -21374,7 +21409,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="871" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A871" s="3" t="s">
         <v>2728</v>
       </c>
@@ -21388,7 +21423,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="872" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A872" s="3" t="s">
         <v>2730</v>
       </c>
@@ -21402,7 +21437,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="873" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A873" s="3" t="s">
         <v>2732</v>
       </c>
@@ -21416,7 +21451,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="874" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A874" s="3" t="s">
         <v>2734</v>
       </c>
@@ -21430,7 +21465,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="875" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A875" s="3" t="s">
         <v>2736</v>
       </c>
@@ -21444,7 +21479,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="876" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A876" s="3" t="s">
         <v>2738</v>
       </c>
@@ -21458,7 +21493,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="877" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A877" s="3" t="s">
         <v>2740</v>
       </c>
@@ -21472,7 +21507,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="878" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A878" s="3" t="s">
         <v>2742</v>
       </c>
@@ -21486,7 +21521,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="879" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A879" s="3" t="s">
         <v>2744</v>
       </c>
@@ -21500,7 +21535,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="880" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A880" s="3" t="s">
         <v>2746</v>
       </c>
@@ -21514,7 +21549,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="881" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A881" s="3" t="s">
         <v>2748</v>
       </c>
@@ -21528,7 +21563,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="882" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A882" s="3" t="s">
         <v>2750</v>
       </c>
@@ -21542,7 +21577,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="883" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A883" s="3" t="s">
         <v>2752</v>
       </c>
@@ -21556,7 +21591,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="884" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A884" s="3" t="s">
         <v>2754</v>
       </c>
@@ -21570,7 +21605,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="885" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A885" s="3" t="s">
         <v>2756</v>
       </c>
@@ -21584,7 +21619,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="886" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A886" s="3" t="s">
         <v>2758</v>
       </c>
@@ -21598,7 +21633,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="887" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A887" s="3" t="s">
         <v>2760</v>
       </c>
@@ -21612,7 +21647,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="888" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A888" s="3" t="s">
         <v>2762</v>
       </c>
@@ -21626,7 +21661,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="889" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A889" s="3" t="s">
         <v>2764</v>
       </c>
@@ -21640,7 +21675,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="890" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A890" s="3" t="s">
         <v>2766</v>
       </c>
@@ -21654,7 +21689,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="891" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A891" s="3" t="s">
         <v>2768</v>
       </c>
@@ -21668,7 +21703,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="892" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A892" s="3" t="s">
         <v>2770</v>
       </c>
@@ -21682,7 +21717,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="893" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A893" s="3" t="s">
         <v>2772</v>
       </c>
@@ -21696,7 +21731,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="894" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A894" s="3" t="s">
         <v>2774</v>
       </c>
@@ -21710,7 +21745,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="895" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A895" s="3" t="s">
         <v>2776</v>
       </c>
@@ -21724,7 +21759,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="896" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A896" s="3" t="s">
         <v>2778</v>
       </c>
@@ -21738,7 +21773,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="897" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A897" s="3" t="s">
         <v>2780</v>
       </c>
@@ -21752,7 +21787,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="898" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A898" s="3" t="s">
         <v>2782</v>
       </c>
@@ -21766,7 +21801,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="899" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A899" s="3" t="s">
         <v>2784</v>
       </c>
@@ -21780,7 +21815,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="900" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A900" s="3" t="s">
         <v>2786</v>
       </c>
@@ -21794,7 +21829,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="901" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A901" s="3" t="s">
         <v>2788</v>
       </c>
@@ -21808,7 +21843,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="902" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A902" s="3" t="s">
         <v>2790</v>
       </c>
@@ -21822,7 +21857,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="903" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A903" s="3" t="s">
         <v>2792</v>
       </c>
@@ -21836,7 +21871,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="904" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A904" s="3" t="s">
         <v>2794</v>
       </c>
@@ -21850,7 +21885,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="905" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A905" s="3" t="s">
         <v>2796</v>
       </c>
@@ -21864,7 +21899,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="906" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A906" s="3" t="s">
         <v>2798</v>
       </c>
@@ -21878,7 +21913,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="907" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A907" s="3" t="s">
         <v>2800</v>
       </c>
@@ -21892,7 +21927,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="908" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A908" s="3" t="s">
         <v>2802</v>
       </c>
@@ -21906,7 +21941,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="909" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A909" s="3" t="s">
         <v>2804</v>
       </c>
@@ -21920,7 +21955,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="910" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A910" s="3" t="s">
         <v>2806</v>
       </c>
@@ -21934,7 +21969,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="911" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A911" s="3" t="s">
         <v>2808</v>
       </c>
@@ -21948,7 +21983,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="912" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A912" s="3" t="s">
         <v>2810</v>
       </c>
@@ -21962,7 +21997,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="913" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A913" s="3" t="s">
         <v>2812</v>
       </c>
@@ -21976,7 +22011,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="914" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A914" s="3" t="s">
         <v>2814</v>
       </c>
@@ -21990,7 +22025,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="915" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A915" s="3" t="s">
         <v>2816</v>
       </c>
@@ -22004,7 +22039,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="916" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A916" s="3" t="s">
         <v>2818</v>
       </c>
@@ -22018,7 +22053,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="917" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A917" s="3" t="s">
         <v>2820</v>
       </c>
@@ -22032,7 +22067,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="918" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A918" s="3" t="s">
         <v>2822</v>
       </c>
@@ -22046,7 +22081,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="919" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A919" s="3" t="s">
         <v>2824</v>
       </c>
@@ -22060,7 +22095,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="920" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A920" s="3" t="s">
         <v>2826</v>
       </c>
@@ -22074,7 +22109,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="921" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A921" s="3" t="s">
         <v>2828</v>
       </c>
@@ -22088,7 +22123,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="922" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A922" s="3" t="s">
         <v>2830</v>
       </c>
@@ -22102,7 +22137,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="923" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A923" s="3" t="s">
         <v>2832</v>
       </c>
@@ -22116,7 +22151,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="924" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A924" s="3" t="s">
         <v>2834</v>
       </c>
@@ -22130,7 +22165,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="925" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A925" s="3" t="s">
         <v>2836</v>
       </c>
@@ -22144,7 +22179,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="926" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A926" s="3" t="s">
         <v>2838</v>
       </c>
@@ -22158,7 +22193,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="927" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A927" s="3" t="s">
         <v>2840</v>
       </c>
@@ -22172,7 +22207,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="928" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A928" s="3" t="s">
         <v>2842</v>
       </c>
@@ -22186,7 +22221,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="929" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A929" s="3" t="s">
         <v>2844</v>
       </c>
@@ -22200,7 +22235,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="930" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A930" s="3" t="s">
         <v>2846</v>
       </c>
@@ -22214,7 +22249,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="931" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A931" s="3" t="s">
         <v>2848</v>
       </c>
@@ -22228,7 +22263,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="932" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A932" s="3" t="s">
         <v>2850</v>
       </c>
@@ -22242,7 +22277,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="933" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A933" s="3" t="s">
         <v>2852</v>
       </c>
@@ -22256,7 +22291,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="934" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A934" s="3" t="s">
         <v>2854</v>
       </c>
@@ -22270,7 +22305,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="935" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A935" s="3" t="s">
         <v>2856</v>
       </c>
@@ -22284,7 +22319,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="936" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A936" s="3" t="s">
         <v>2858</v>
       </c>
@@ -22298,7 +22333,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="937" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A937" s="3" t="s">
         <v>2860</v>
       </c>
@@ -22312,7 +22347,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="938" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A938" s="3" t="s">
         <v>2862</v>
       </c>
@@ -22326,7 +22361,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="939" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A939" s="3" t="s">
         <v>2864</v>
       </c>
@@ -22340,7 +22375,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="940" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A940" s="3" t="s">
         <v>2866</v>
       </c>
@@ -22354,7 +22389,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="941" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A941" s="3" t="s">
         <v>2868</v>
       </c>
@@ -22368,7 +22403,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="942" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A942" s="3" t="s">
         <v>2870</v>
       </c>
@@ -22382,7 +22417,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="943" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A943" s="3" t="s">
         <v>2872</v>
       </c>
@@ -22396,7 +22431,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="944" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A944" s="3" t="s">
         <v>2874</v>
       </c>
@@ -22410,7 +22445,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="945" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A945" s="3" t="s">
         <v>2876</v>
       </c>
@@ -22424,7 +22459,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="946" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A946" s="3" t="s">
         <v>2878</v>
       </c>
@@ -22438,7 +22473,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="947" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A947" s="3" t="s">
         <v>2880</v>
       </c>
@@ -22452,7 +22487,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="948" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A948" s="3" t="s">
         <v>2882</v>
       </c>
@@ -22466,7 +22501,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="949" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A949" s="3" t="s">
         <v>2884</v>
       </c>
@@ -22480,7 +22515,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="950" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A950" s="3" t="s">
         <v>2886</v>
       </c>
@@ -22492,13 +22527,41 @@
       </c>
       <c r="D950" s="3" t="s">
         <v>976</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A951" s="5">
+        <v>999998</v>
+      </c>
+      <c r="B951" s="6" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C951" s="5" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D951" s="5" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A952" s="5">
+        <v>999999</v>
+      </c>
+      <c r="B952" s="6" t="s">
+        <v>2890</v>
+      </c>
+      <c r="C952" s="5" t="s">
+        <v>2892</v>
+      </c>
+      <c r="D952" s="5" t="s">
+        <v>2894</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A4:E950" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:E950 C951:D952" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -22507,6 +22570,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -22638,7 +22710,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -22647,16 +22719,23 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22674,26 +22753,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>